--- a/data/tests/cluster_25.xlsx
+++ b/data/tests/cluster_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,276 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rv2174</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mptA Rv2174</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in the latter stages of the biosynthesis of the alpha-(1-&gt;6) mannan core of lipomannan (LM). Catalyzes the addition of alpha-(1-&gt;6)-mannose residue. {ECO:0000269|PubMed:17714444}.</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rv1401</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rv1401 MTCY21B4.18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rv1045</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rv1045</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rv0266c</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>oplA Rv0266c</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rv3237c</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rv3237c</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rv3446c</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rv3446c</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rv3050c</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rv3050c</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rv2853</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PE_PGRS48 Rv2853</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rv2943</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rv2943</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rv2943</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rv2943A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv0030</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rv0030 MTCY10H4.30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rv3626c</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rv3626c</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv0885</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rv0885 MTCY31.13</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv3747</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rv3747</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
